--- a/list_of_device.xlsx
+++ b/list_of_device.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acf768d4f658c45b/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\midicreator\Midicreator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65EC303F-84AD-455F-899F-EE7399CFB2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C8E5C-5B3D-420C-9C18-591DD8E79889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E4EDA35E-F960-4D20-84F9-54E79B42FE06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>device/matrieal needed</t>
   </si>
@@ -45,6 +45,33 @@
   </si>
   <si>
     <t>local or remote graphic card compatiable to CUDA 11.8 or higher</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>300-2000€</t>
+  </si>
+  <si>
+    <t>a screen suitable for play the GUI</t>
+  </si>
+  <si>
+    <t>100-200€</t>
+  </si>
+  <si>
+    <t>piano could send and recive midi signal</t>
+  </si>
+  <si>
+    <t>300-1000€</t>
+  </si>
+  <si>
+    <t>500-2000€</t>
+  </si>
+  <si>
+    <t>only reauired to train the model</t>
+  </si>
+  <si>
+    <t>could use the exist one of DVIC</t>
   </si>
 </sst>
 </file>
@@ -88,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,29 +453,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635B31FA-3579-428E-ADE7-F826269ABCD7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50.1328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.06640625" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
